--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1680002.732796121</v>
+        <v>1716150.924577324</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6262630.373444743</v>
+        <v>6353240.225110523</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>274.8212597398785</v>
       </c>
       <c r="C2" t="n">
-        <v>332.0164959768354</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.78580588144442</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.60912734118206</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>315.1641855428485</v>
       </c>
       <c r="F5" t="n">
-        <v>94.23999511039595</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>140.0647189123105</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>142.0720047395417</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>317.9431588491611</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>178.9654853621852</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.22772027659289</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1531,22 +1531,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.26460296736268</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>130.3463188443646</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.0254420454348</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479130776</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>113.5770391806065</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184736275</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2005,19 +2005,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>61.06386613909901</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225745</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2384,7 +2384,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>109.4519776932667</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>89.0533674875544</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604905022</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>102.2146311366282</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.550686977302</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>172.662300743692</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3752,10 +3752,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>390.5832050211323</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112179</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225728</v>
+        <v>18.05677735226426</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>71.84692347866368</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>79.5854046174442</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,16 +4331,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>854.4618996557366</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>839.3598402754513</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>431.0737165751048</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,22 +4410,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1654.143907513567</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1408.264461092022</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1129.831460345127</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.831460345127</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1129.831460345127</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>884.4397056785397</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>884.4397056785397</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.8413732171584</v>
+        <v>1267.076121319351</v>
       </c>
       <c r="C5" t="n">
-        <v>190.7393044409857</v>
+        <v>828.9336485027743</v>
       </c>
       <c r="D5" t="n">
-        <v>158.8699236558343</v>
+        <v>393.0238636772188</v>
       </c>
       <c r="E5" t="n">
-        <v>129.1355828545336</v>
+        <v>74.67620151272534</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2116.76387488489</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>2101.661815504605</v>
       </c>
       <c r="Y5" t="n">
-        <v>247.1005396616621</v>
+        <v>1693.375691804259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>593.0357356940413</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>420.4740241772662</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>420.4740241772662</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.6683834787607</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C8" t="n">
-        <v>516.086709216029</v>
+        <v>1347.589877705439</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1315.720496920287</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1375.213673623611</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y8" t="n">
-        <v>1370.967953963669</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>851.7801684713901</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1516.410212542856</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1271.018457876269</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1043.598787190377</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526433</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847285</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939363</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172002</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111513</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111513</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1171.795942933974</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503956</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774509</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.24256235382</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928040994</v>
+        <v>811.7546776883896</v>
       </c>
       <c r="C13" t="n">
-        <v>612.2502812873245</v>
+        <v>639.1929661716146</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3722884888472</v>
+        <v>639.1929661716146</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>639.1929661716146</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>462.4859121333708</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471574</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2313.799635050029</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2035.366634303134</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1476.384721759856</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230866</v>
+        <v>1003.573296407377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397513</v>
+        <v>102.677629643639</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510709</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353819</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111513</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111513</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2582.778346878338</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2336.898900456793</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2058.465899709899</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1771.510391580329</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1499.483987166621</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181387</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160249</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277514</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423158</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523531</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356927</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315522</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252416</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125454</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442471</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376297</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787331</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366642</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666295</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389842</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222091</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>573.8348014544322</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>404.0767977051694</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051694</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>238.485522730997</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860614</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324159</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243863</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579712</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,13 +5759,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6844,7 +6844,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883978</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716227</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674088</v>
+        <v>473.3149733731454</v>
       </c>
       <c r="E37" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354754</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006611</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745721</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955485</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211313</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338911</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309253</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173585</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173585</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471582</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050037</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303142</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173573</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759864</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.992967093277</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961044</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455132</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638555</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.131076813</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.356331971295</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F41" t="n">
-        <v>784.4889023805026</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601669</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033832</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305232</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>934.7637604887012</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2009.82372674156</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2009.82372674156</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163863</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734169</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567566</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.67342652616</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.67342652616</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.67342652616</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399199</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716216</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650042</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061075</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640386</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.48290494004</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074545</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906795</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922022</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429395</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046955</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2203.220781338912</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2550.727675309254</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390638</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.565954092629</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678921</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693461</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263767</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097163</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174173</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.8119928040993</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>612.2502812873242</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>531.8609836939463</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>362.1029799446836</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>185.3959259064398</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.050282208978</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.6306115230864</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957715</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638428</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>662.4862347700027</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.011132734623</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444074</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.58904338006596</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.0111327346239</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.216138714876251e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>44.07191583437675</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.3951296147834</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1553467313935</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>65.48800580459464</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>139.5921776627199</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>140.7232059832935</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.4236523045819</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.800648041836429</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.592177662726</v>
+        <v>139.5921776627191</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>184.7831561774896</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>84.63380825304833</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526597.0038753836</v>
+        <v>537165.6058947798</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>526597.0038753836</v>
+        <v>539068.505933051</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532083.1157211984</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532083.1157211983</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>539591.3259621868</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>554537.6312256011</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554537.6312256011</v>
+        <v>554537.6312256013</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554537.6312256012</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>547029.4209846127</v>
+        <v>554537.6312256013</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532083.1157211984</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>442321.5389095868</v>
+      </c>
+      <c r="C2" t="n">
         <v>442321.538909587</v>
       </c>
-      <c r="C2" t="n">
-        <v>442321.5389095868</v>
-      </c>
       <c r="D2" t="n">
-        <v>442321.5389095871</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515128</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="I2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="J2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="J2" t="n">
-        <v>434657.5069133157</v>
-      </c>
-      <c r="K2" t="n">
-        <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
         <v>434657.5069133157</v>
@@ -26347,13 +26347,13 @@
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884358</v>
+        <v>434657.5069133159</v>
       </c>
       <c r="P2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996165</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856654</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856654</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701659</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933284</v>
-      </c>
       <c r="J4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
@@ -26448,16 +26448,16 @@
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933272</v>
       </c>
       <c r="O4" t="n">
-        <v>67079.99695088273</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>65247.19221856654</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.3448002424</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="O5" t="n">
-        <v>76314.23608319763</v>
-      </c>
-      <c r="P5" t="n">
-        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40876.6238661391</v>
+        <v>40876.62386613896</v>
       </c>
       <c r="C6" t="n">
-        <v>183067.9245258489</v>
+        <v>140550.6584133223</v>
       </c>
       <c r="D6" t="n">
-        <v>183067.9245258491</v>
+        <v>199944.7775451728</v>
       </c>
       <c r="E6" t="n">
-        <v>43935.65930838163</v>
+        <v>106560.236457758</v>
       </c>
       <c r="F6" t="n">
-        <v>278290.6813304189</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="G6" t="n">
-        <v>275521.8493514015</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="H6" t="n">
-        <v>276535.8150382286</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="I6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788077</v>
       </c>
       <c r="J6" t="n">
-        <v>177924.1046732001</v>
+        <v>177900.8803338175</v>
       </c>
       <c r="K6" t="n">
-        <v>288938.5700181904</v>
+        <v>235869.491040035</v>
       </c>
       <c r="L6" t="n">
-        <v>288938.5700181904</v>
+        <v>279523.0439521855</v>
       </c>
       <c r="M6" t="n">
-        <v>93337.39073512284</v>
+        <v>136715.1747408201</v>
       </c>
       <c r="N6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788078</v>
       </c>
       <c r="O6" t="n">
-        <v>285378.1909543555</v>
+        <v>288915.3456788079</v>
       </c>
       <c r="P6" t="n">
-        <v>278290.6813304189</v>
+        <v>288915.3456788076</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
+        <v>1278.260503384746</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1278.260503384746</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1278.260503384746</v>
+      </c>
+      <c r="P4" t="n">
         <v>1278.260503384745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1278.260503384745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1255.16835663154</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1209.199708513939</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176004</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176004</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>147.2153150401801</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>101.7445521115756</v>
-      </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>104.1146266503528</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>115.0398276738012</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>114.2728118504393</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>329.3487601844884</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>27.99570479945962</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>287.3649926537461</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>97.00787993732126</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>90.34065500738615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.438889786064455e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.938716185482917e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-8.651625031007507e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.301146286410376e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>6.598573539425463e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741822</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957715</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35583,7 +35583,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165047</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638428</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908661</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>662.4862347700027</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325513011</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
